--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H2">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I2">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J2">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>42094.61024952595</v>
+        <v>42125.45786011285</v>
       </c>
       <c r="R2">
-        <v>42094.61024952595</v>
+        <v>168501.8314404514</v>
       </c>
       <c r="S2">
-        <v>0.1044590574121956</v>
+        <v>0.09995482102695594</v>
       </c>
       <c r="T2">
-        <v>0.1044590574121956</v>
+        <v>0.06416068606075306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H3">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I3">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J3">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>28486.78236757289</v>
+        <v>30399.10480498958</v>
       </c>
       <c r="R3">
-        <v>28486.78236757289</v>
+        <v>182394.6288299375</v>
       </c>
       <c r="S3">
-        <v>0.07069081806872245</v>
+        <v>0.07213066004534746</v>
       </c>
       <c r="T3">
-        <v>0.07069081806872245</v>
+        <v>0.06945066661581592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H4">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I4">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J4">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>21491.23583939389</v>
+        <v>21636.93310514815</v>
       </c>
       <c r="R4">
-        <v>21491.23583939389</v>
+        <v>129821.5986308889</v>
       </c>
       <c r="S4">
-        <v>0.05333115629527804</v>
+        <v>0.05133987583658058</v>
       </c>
       <c r="T4">
-        <v>0.05333115629527804</v>
+        <v>0.04943235787087085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H5">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I5">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J5">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>20207.11921336781</v>
+        <v>20383.67986373723</v>
       </c>
       <c r="R5">
-        <v>20207.11921336781</v>
+        <v>122302.0791824234</v>
       </c>
       <c r="S5">
-        <v>0.05014458177737943</v>
+        <v>0.04836617039075103</v>
       </c>
       <c r="T5">
-        <v>0.05014458177737943</v>
+        <v>0.04656913957504347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H6">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I6">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J6">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>29689.84718115062</v>
+        <v>31159.04346776215</v>
       </c>
       <c r="R6">
-        <v>29689.84718115062</v>
+        <v>186954.2608065729</v>
       </c>
       <c r="S6">
-        <v>0.07367626004543071</v>
+        <v>0.07393383410890629</v>
       </c>
       <c r="T6">
-        <v>0.07367626004543071</v>
+        <v>0.07118684427812734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H7">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I7">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J7">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>35697.93378797664</v>
+        <v>35811.14015666138</v>
       </c>
       <c r="R7">
-        <v>35697.93378797664</v>
+        <v>143244.5606266455</v>
       </c>
       <c r="S7">
-        <v>0.0885855099489133</v>
+        <v>0.08497227773800947</v>
       </c>
       <c r="T7">
-        <v>0.0885855099489133</v>
+        <v>0.05454343852354328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H8">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I8">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J8">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>13844.90220411942</v>
+        <v>14740.37239380056</v>
       </c>
       <c r="R8">
-        <v>13844.90220411942</v>
+        <v>88442.23436280336</v>
       </c>
       <c r="S8">
-        <v>0.03435654649451542</v>
+        <v>0.03497579277086272</v>
       </c>
       <c r="T8">
-        <v>0.03435654649451542</v>
+        <v>0.03367627749178945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H9">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I9">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J9">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>9369.292497333949</v>
+        <v>10637.13364853426</v>
       </c>
       <c r="R9">
-        <v>9369.292497333949</v>
+        <v>95734.20283680834</v>
       </c>
       <c r="S9">
-        <v>0.02325018469322167</v>
+        <v>0.02523967320687074</v>
       </c>
       <c r="T9">
-        <v>0.02325018469322167</v>
+        <v>0.03645285087396591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H10">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I10">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J10">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>7068.459754783584</v>
+        <v>7571.109434317274</v>
       </c>
       <c r="R10">
-        <v>7068.459754783584</v>
+        <v>68139.98490885546</v>
       </c>
       <c r="S10">
-        <v>0.01754059816598605</v>
+        <v>0.0179646448234629</v>
       </c>
       <c r="T10">
-        <v>0.01754059816598605</v>
+        <v>0.02594576060418999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H11">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I11">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J11">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>6646.114257328476</v>
+        <v>7132.57605282906</v>
       </c>
       <c r="R11">
-        <v>6646.114257328476</v>
+        <v>64193.18447546154</v>
       </c>
       <c r="S11">
-        <v>0.01649253495064977</v>
+        <v>0.01692409766059148</v>
       </c>
       <c r="T11">
-        <v>0.01649253495064977</v>
+        <v>0.02444293169493317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H12">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I12">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J12">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>9764.980082762737</v>
+        <v>10903.04835794614</v>
       </c>
       <c r="R12">
-        <v>9764.980082762737</v>
+        <v>98127.43522151529</v>
       </c>
       <c r="S12">
-        <v>0.02423209548794305</v>
+        <v>0.02587063269165457</v>
       </c>
       <c r="T12">
-        <v>0.02423209548794305</v>
+        <v>0.03736412543040819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H13">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I13">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J13">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>11741.03761156056</v>
+        <v>12530.89149816923</v>
       </c>
       <c r="R13">
-        <v>11741.03761156056</v>
+        <v>75185.34898901536</v>
       </c>
       <c r="S13">
-        <v>0.02913574243055414</v>
+        <v>0.02973316091108128</v>
       </c>
       <c r="T13">
-        <v>0.02913574243055414</v>
+        <v>0.02862843407465963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H14">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I14">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J14">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>17.44839328728323</v>
+        <v>22.12796260962667</v>
       </c>
       <c r="R14">
-        <v>17.44839328728323</v>
+        <v>132.76777565776</v>
       </c>
       <c r="S14">
-        <v>4.32987193691243E-05</v>
+        <v>5.250498522012934E-05</v>
       </c>
       <c r="T14">
-        <v>4.32987193691243E-05</v>
+        <v>5.055417795843046E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H15">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I15">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J15">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>11.80789130228982</v>
+        <v>15.96825978069333</v>
       </c>
       <c r="R15">
-        <v>11.80789130228982</v>
+        <v>143.71433802624</v>
       </c>
       <c r="S15">
-        <v>2.930164190026555E-05</v>
+        <v>3.788931039732241E-05</v>
       </c>
       <c r="T15">
-        <v>2.930164190026555E-05</v>
+        <v>5.472231634342306E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H16">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I16">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J16">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>8.908207795075716</v>
+        <v>11.36560339184</v>
       </c>
       <c r="R16">
-        <v>8.908207795075716</v>
+        <v>102.29043052656</v>
       </c>
       <c r="S16">
-        <v>2.210598896128423E-05</v>
+        <v>2.696817816597347E-05</v>
       </c>
       <c r="T16">
-        <v>2.210598896128423E-05</v>
+        <v>3.894927517362483E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H17">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I17">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J17">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>8.375936043779609</v>
+        <v>10.70728554142222</v>
       </c>
       <c r="R17">
-        <v>8.375936043779609</v>
+        <v>96.36556987280001</v>
       </c>
       <c r="S17">
-        <v>2.078514039901119E-05</v>
+        <v>2.540612884330806E-05</v>
       </c>
       <c r="T17">
-        <v>2.078514039901119E-05</v>
+        <v>3.669325741340276E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H18">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I18">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J18">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>12.30656673586585</v>
+        <v>16.36744581141333</v>
       </c>
       <c r="R18">
-        <v>12.30656673586585</v>
+        <v>147.30701230272</v>
       </c>
       <c r="S18">
-        <v>3.05391201768712E-05</v>
+        <v>3.883649460098324E-05</v>
       </c>
       <c r="T18">
-        <v>3.05391201768712E-05</v>
+        <v>5.609030412374127E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.106022765465081</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H19">
-        <v>0.106022765465081</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I19">
-        <v>0.0001827496778790587</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J19">
-        <v>0.0001827496778790587</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>14.7969439456451</v>
+        <v>18.81113252290667</v>
       </c>
       <c r="R19">
-        <v>14.7969439456451</v>
+        <v>112.86679513744</v>
       </c>
       <c r="S19">
-        <v>3.671906707250218E-05</v>
+        <v>4.463484743323925E-05</v>
       </c>
       <c r="T19">
-        <v>3.671906707250218E-05</v>
+        <v>4.297645282304132E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H20">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I20">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J20">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>38.18235211651619</v>
+        <v>47.046387699671</v>
       </c>
       <c r="R20">
-        <v>38.18235211651619</v>
+        <v>282.278326198026</v>
       </c>
       <c r="S20">
-        <v>9.475066969925796E-05</v>
+        <v>0.0001116311489859923</v>
       </c>
       <c r="T20">
-        <v>9.475066969925796E-05</v>
+        <v>0.000107483526523846</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H21">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I21">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J21">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>25.83923092713472</v>
+        <v>33.950208330736</v>
       </c>
       <c r="R21">
-        <v>25.83923092713472</v>
+        <v>305.551874976624</v>
       </c>
       <c r="S21">
-        <v>6.412083853264663E-05</v>
+        <v>8.055667926020958E-05</v>
       </c>
       <c r="T21">
-        <v>6.412083853264663E-05</v>
+        <v>0.0001163454293526646</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H22">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J22">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>19.49384800986656</v>
+        <v>24.164474291934</v>
       </c>
       <c r="R22">
-        <v>19.49384800986656</v>
+        <v>217.480268627406</v>
       </c>
       <c r="S22">
-        <v>4.837457756174848E-05</v>
+        <v>5.733719764142335E-05</v>
       </c>
       <c r="T22">
-        <v>4.837457756174848E-05</v>
+        <v>8.281027642564512E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H23">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J23">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>18.3290767272021</v>
+        <v>22.76482094983666</v>
       </c>
       <c r="R23">
-        <v>18.3290767272021</v>
+        <v>204.88338854853</v>
       </c>
       <c r="S23">
-        <v>4.548416214830981E-05</v>
+        <v>5.401611565404895E-05</v>
       </c>
       <c r="T23">
-        <v>4.548416214830981E-05</v>
+        <v>7.801374417922059E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H24">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J24">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>26.93048332402639</v>
+        <v>34.798920030808</v>
       </c>
       <c r="R24">
-        <v>26.93048332402639</v>
+        <v>313.190280277272</v>
       </c>
       <c r="S24">
-        <v>6.682881459187115E-05</v>
+        <v>8.257049300594705E-05</v>
       </c>
       <c r="T24">
-        <v>6.682881459187115E-05</v>
+        <v>0.0001192539159863714</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.232009818709494</v>
+        <v>0.285862</v>
       </c>
       <c r="H25">
-        <v>0.232009818709494</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003999114666359399</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J25">
-        <v>0.0003999114666359399</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>32.38018049448397</v>
+        <v>39.994456306499</v>
       </c>
       <c r="R25">
-        <v>32.38018049448397</v>
+        <v>239.966737838994</v>
       </c>
       <c r="S25">
-        <v>8.035240410210586E-05</v>
+        <v>9.489840408290835E-05</v>
       </c>
       <c r="T25">
-        <v>8.035240410210586E-05</v>
+        <v>9.137248182938495E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H26">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I26">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J26">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>25990.65269249169</v>
+        <v>26672.8117167517</v>
       </c>
       <c r="R26">
-        <v>25990.65269249169</v>
+        <v>160036.8703005102</v>
       </c>
       <c r="S26">
-        <v>0.0644965962552415</v>
+        <v>0.06328895297202279</v>
       </c>
       <c r="T26">
-        <v>0.0644965962552415</v>
+        <v>0.06093747056467592</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H27">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I27">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J27">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>17588.71414780521</v>
+        <v>19247.97117965656</v>
       </c>
       <c r="R27">
-        <v>17588.71414780521</v>
+        <v>173231.7406169091</v>
       </c>
       <c r="S27">
-        <v>0.04364692985827021</v>
+        <v>0.04567137337197417</v>
       </c>
       <c r="T27">
-        <v>0.04364692985827021</v>
+        <v>0.06596170041871167</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H28">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I28">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J28">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>13269.42435915313</v>
+        <v>13699.97792683985</v>
       </c>
       <c r="R28">
-        <v>13269.42435915313</v>
+        <v>123299.8013415586</v>
       </c>
       <c r="S28">
-        <v>0.03292848069486933</v>
+        <v>0.03250715627347856</v>
       </c>
       <c r="T28">
-        <v>0.03292848069486933</v>
+        <v>0.04694904368457688</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H29">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I29">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J29">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>12476.56681644494</v>
+        <v>12906.44856384594</v>
       </c>
       <c r="R29">
-        <v>12476.56681644494</v>
+        <v>116158.0370746135</v>
       </c>
       <c r="S29">
-        <v>0.03096098055453058</v>
+        <v>0.0306242785675298</v>
       </c>
       <c r="T29">
-        <v>0.03096098055453058</v>
+        <v>0.04422966377556202</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H30">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I30">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J30">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>18331.52752820962</v>
+        <v>19729.14579230345</v>
       </c>
       <c r="R30">
-        <v>18331.52752820962</v>
+        <v>177562.3121307311</v>
       </c>
       <c r="S30">
-        <v>0.04549024388565414</v>
+        <v>0.04681309917705734</v>
       </c>
       <c r="T30">
-        <v>0.04549024388565414</v>
+        <v>0.0676106583973089</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>157.928631555363</v>
+        <v>162.0686236666667</v>
       </c>
       <c r="H31">
-        <v>157.928631555363</v>
+        <v>486.205871</v>
       </c>
       <c r="I31">
-        <v>0.2722189561649261</v>
+        <v>0.2727072326181867</v>
       </c>
       <c r="J31">
-        <v>0.2722189561649261</v>
+        <v>0.3374918978020542</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>22041.12577413195</v>
+        <v>22674.73986710696</v>
       </c>
       <c r="R31">
-        <v>22041.12577413195</v>
+        <v>136048.4392026417</v>
       </c>
       <c r="S31">
-        <v>0.05469572491636033</v>
+        <v>0.05380237225612407</v>
       </c>
       <c r="T31">
-        <v>0.05469572491636033</v>
+        <v>0.05180336096121879</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H32">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I32">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J32">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>13491.21665252695</v>
+        <v>14199.68024108381</v>
       </c>
       <c r="R32">
-        <v>13491.21665252695</v>
+        <v>56798.72096433525</v>
       </c>
       <c r="S32">
-        <v>0.03347886502601726</v>
+        <v>0.03369284440422538</v>
       </c>
       <c r="T32">
-        <v>0.03347886502601726</v>
+        <v>0.02162733112923408</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H33">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I33">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J33">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>9129.942060899322</v>
+        <v>10246.95255015301</v>
       </c>
       <c r="R33">
-        <v>9129.942060899322</v>
+        <v>61481.71530091808</v>
       </c>
       <c r="S33">
-        <v>0.02265622929529895</v>
+        <v>0.02431385580718078</v>
       </c>
       <c r="T33">
-        <v>0.02265622929529895</v>
+        <v>0.0234104816557609</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H34">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I34">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J34">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>6887.887003136705</v>
+        <v>7293.393285150191</v>
       </c>
       <c r="R34">
-        <v>6887.887003136705</v>
+        <v>43760.35971090115</v>
       </c>
       <c r="S34">
-        <v>0.0170925013830595</v>
+        <v>0.01730568301280504</v>
       </c>
       <c r="T34">
-        <v>0.0170925013830595</v>
+        <v>0.01666269545746151</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H35">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I35">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J35">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>6476.330856016305</v>
+        <v>6870.945763078577</v>
       </c>
       <c r="R35">
-        <v>6476.330856016305</v>
+        <v>41225.67457847147</v>
       </c>
       <c r="S35">
-        <v>0.01607121226919067</v>
+        <v>0.01630330419944783</v>
       </c>
       <c r="T35">
-        <v>0.01607121226919067</v>
+        <v>0.0156975597336866</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H36">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I36">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J36">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>9515.521306099528</v>
+        <v>10503.11323213398</v>
       </c>
       <c r="R36">
-        <v>9515.521306099528</v>
+        <v>63018.67939280391</v>
       </c>
       <c r="S36">
-        <v>0.0236130559358728</v>
+        <v>0.02492167104343476</v>
       </c>
       <c r="T36">
-        <v>0.0236130559358728</v>
+        <v>0.02399571369593008</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>81.9775251187139</v>
+        <v>86.27971650000001</v>
       </c>
       <c r="H37">
-        <v>81.9775251187139</v>
+        <v>172.559433</v>
       </c>
       <c r="I37">
-        <v>0.1413032969197693</v>
+        <v>0.1451798761874476</v>
       </c>
       <c r="J37">
-        <v>0.1413032969197693</v>
+        <v>0.1197793239457127</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>11441.09794404329</v>
+        <v>12071.24539706702</v>
       </c>
       <c r="R37">
-        <v>11441.09794404329</v>
+        <v>48284.98158826806</v>
       </c>
       <c r="S37">
-        <v>0.02839143301033011</v>
+        <v>0.0286425177203538</v>
       </c>
       <c r="T37">
-        <v>0.02839143301033011</v>
+        <v>0.01838554227363957</v>
       </c>
     </row>
   </sheetData>
